--- a/ApolloQA/Data/RatingManual/SC/VA00059.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00059.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.ClassCodeFactors" sheetId="1" r:id="Ra2e2caad781247dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.ClassCodeFactors" sheetId="1" r:id="R2fa985d837024251"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2147</x:v>
+        <x:v>1.5184</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.8434</x:v>
+        <x:v>2.3043</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2826</x:v>
+        <x:v>1.6033</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2120</x:v>
+        <x:v>1.5150</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,35 +151,35 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1.2198</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8516</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.7073</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>0.9758</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2.2813</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2.9658</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.9758</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
         <x:v>546</x:v>
       </x:c>
       <x:c t="str">
@@ -311,7 +311,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8975</x:v>
+        <x:v>1.1219</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -327,7 +327,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5000</x:v>
+        <x:v>1.8750</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -335,7 +335,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3.6704</x:v>
+        <x:v>4.5880</x:v>
       </x:c>
     </x:row>
     <x:row>
